--- a/data.xlsx
+++ b/data.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="sales" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="my_order" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="order_detail" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="customer" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="424">
   <si>
     <t>Keyword</t>
   </si>
@@ -1008,6 +1009,294 @@
   </si>
   <si>
     <t>patona-sellercenter-orderdetail-modal-payment-button-confirm</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-orderdetail-modal-deliver-title-confirmation</t>
+  </si>
+  <si>
+    <t>Confirm Delivery</t>
+  </si>
+  <si>
+    <t>ยืนยันการส่งมอบ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-orderdetail-button-deliver</t>
+  </si>
+  <si>
+    <t>Deliver</t>
+  </si>
+  <si>
+    <t>ส่งมอบ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-orderdetail-toast-deliver-success</t>
+  </si>
+  <si>
+    <t>Delivery successful</t>
+  </si>
+  <si>
+    <t>ส่งมอบสินค้าสำเร็จ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-orderdetail-toast-deliver-fail</t>
+  </si>
+  <si>
+    <t>Failed to deliver product</t>
+  </si>
+  <si>
+    <t>ส่งมอบสินค้าไม่สำเร็จ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-orderdetail-modal-cancel-title-confirmation</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-orderdetail-modal-cancel-body-confirmation</t>
+  </si>
+  <si>
+    <t>Are you sure you want to cancel the order?</t>
+  </si>
+  <si>
+    <t>คุณต้องการยกเลิกออเดอร์ ใช่หรือไม่</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-orderdetail-modal-button-confirm</t>
+  </si>
+  <si>
+    <t>ตกลง</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-orderdetail-modal-button-cancel</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-orderdetail-toast-canceled-success</t>
+  </si>
+  <si>
+    <t>Order cancellation successful</t>
+  </si>
+  <si>
+    <t>ยกเลิกออเดอร์สำเร็จ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-orderdetail-toast-canceled-fail</t>
+  </si>
+  <si>
+    <t>Failed to cancel order</t>
+  </si>
+  <si>
+    <t>ยกเลิกออเดอร์ไม่สำเร็จ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-orderdetail-title-refund</t>
+  </si>
+  <si>
+    <t>Refund</t>
+  </si>
+  <si>
+    <t>การคืนเงิน</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-badge-paymentstatus-refunded</t>
+  </si>
+  <si>
+    <t>Refunded</t>
+  </si>
+  <si>
+    <t>คืนเงินแล้ว</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-orderdetail-badge-deliverystatus-canceled</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-title-customerbook</t>
+  </si>
+  <si>
+    <t>Customer book</t>
+  </si>
+  <si>
+    <t>สมุดรายชื่อลูกค้า</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-table-header-customername</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชื่อลูกค้า	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-table-header-phone</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เบอร์โทร	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-table-header-totalorder</t>
+  </si>
+  <si>
+    <t>Total Orders</t>
+  </si>
+  <si>
+    <t>คำสั่งขายทั้งหมด</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-table-header-latestorder</t>
+  </si>
+  <si>
+    <t>Recent Order</t>
+  </si>
+  <si>
+    <t>คำสั่งขายล่าสุด</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-table-body-menu-view</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>ดูรายละเอียด</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-table-body-menu-edit</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">แก้ไขข้อมูล	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-button-addcustomer</t>
+  </si>
+  <si>
+    <t>Add customer</t>
+  </si>
+  <si>
+    <t>เพิ่มลูกค้า</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-placeholder-search</t>
+  </si>
+  <si>
+    <t>Name or Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชื่อหรือเบอร์โทร	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-title-information</t>
+  </si>
+  <si>
+    <t>ข้อมูลพื้นฐาน</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-label-name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-placeholder-name</t>
+  </si>
+  <si>
+    <t>Enter First Name</t>
+  </si>
+  <si>
+    <t>ระบุชื่อ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-label-lastname</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>นามสกุล</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-placeholder-lastname</t>
+  </si>
+  <si>
+    <t>Enter Last Name</t>
+  </si>
+  <si>
+    <t>ระบุนามสกุล</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-label-phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เบอร์โทรศัพท์	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-placeholder-phone</t>
+  </si>
+  <si>
+    <t>Enter Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุเบอร์โทรศัพท์	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-label-email</t>
+  </si>
+  <si>
+    <t>Email (Optional)</t>
+  </si>
+  <si>
+    <t>อีเมล (Optional)</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-placeholder-email</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุอีเมล	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-shippingaddress</t>
+  </si>
+  <si>
+    <t>Shipping Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ที่อยู่สำหรับจัดส่งสินค้า	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-noshippingaddress</t>
+  </si>
+  <si>
+    <t>No Shipping Address Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ยังไม่มีที่อยู่สำหรับจัดส่งสินค้า        </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-button-addshippingaddress</t>
+  </si>
+  <si>
+    <t>Add Shipping Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เพิ่มที่อยู่สำหรับจัดส่งสินค้า	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-shipping-title-addshipping</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-shipping-title-editshipping</t>
+  </si>
+  <si>
+    <t>Edit Shipping Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">แก้ไขที่อยู่สำหรับจัดส่งสินค้า        </t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1329,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1051,6 +1340,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
         <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1074,7 +1369,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1102,6 +1397,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1119,6 +1417,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2964,6 +3266,453 @@
         <v>132</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="50.13"/>
+    <col customWidth="1" min="2" max="2" width="25.63"/>
+    <col customWidth="1" min="3" max="3" width="22.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -7,6 +7,11 @@
     <sheet state="visible" name="my_order" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="order_detail" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="customer" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="profile" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="createCompany" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="createStore" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="validate_msg" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="address" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="827">
   <si>
     <t>Keyword</t>
   </si>
@@ -1158,152 +1163,1361 @@
     <t>ดูรายละเอียด</t>
   </si>
   <si>
+    <t>patona-sellercenter-customerbook-table-body-menu-editdata</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">แก้ไขข้อมูล	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-button-addcustomer</t>
+  </si>
+  <si>
+    <t>Add customer</t>
+  </si>
+  <si>
+    <t>เพิ่มลูกค้า</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-placeholder-search</t>
+  </si>
+  <si>
+    <t>Name or Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชื่อหรือเบอร์โทร	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-taxaddress</t>
+  </si>
+  <si>
+    <t>Tax Invoice Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ที่อยู่สำหรับออกใบกำกับภาษี	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-title-addcustomer</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-title-information</t>
+  </si>
+  <si>
+    <t>ข้อมูลพื้นฐาน</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-label-name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-placeholder-name</t>
+  </si>
+  <si>
+    <t>Enter First Name</t>
+  </si>
+  <si>
+    <t>ระบุชื่อ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-label-lastname</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>นามสกุล</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-placeholder-lastname</t>
+  </si>
+  <si>
+    <t>Enter Last Name</t>
+  </si>
+  <si>
+    <t>ระบุนามสกุล</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-label-phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เบอร์โทรศัพท์	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-placeholder-phone</t>
+  </si>
+  <si>
+    <t>Enter Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุเบอร์โทรศัพท์	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-label-email</t>
+  </si>
+  <si>
+    <t>Email (Optional)</t>
+  </si>
+  <si>
+    <t>อีเมล (Optional)</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-add-placeholder-email</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุอีเมล	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-shippingaddress</t>
+  </si>
+  <si>
+    <t>Shipping Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ที่อยู่สำหรับจัดส่งสินค้า	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-noshippingaddress</t>
+  </si>
+  <si>
+    <t>No Shipping Address Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ยังไม่มีที่อยู่สำหรับจัดส่งสินค้า        </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-button-addshippingaddress</t>
+  </si>
+  <si>
+    <t>Add Shipping Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เพิ่มที่อยู่สำหรับจัดส่งสินค้า	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-shipping-title-addshipping</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-shipping-title-editshipping</t>
+  </si>
+  <si>
+    <t>Edit Shipping Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">แก้ไขที่อยู่สำหรับจัดส่งสินค้า        </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-button-addtaxaddress</t>
+  </si>
+  <si>
+    <t>Add Tax Invoice Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เพิ่มที่อยู่สำหรับออกใบกำกับภาษี	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-tax-title-addtax</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-tax-title-edittax</t>
+  </si>
+  <si>
+    <t>Edit Tax Invoice Address</t>
+  </si>
+  <si>
+    <t>แก้ไขที่อยู่สำหรับออกใบกำกับภาษี</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-notaxaddress</t>
+  </si>
+  <si>
+    <t>No Tax Invoice Address Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ยังไม่มีที่อยู่สำหรับออกใบกำกับภาษี	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-button-cancel</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-button-save</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>บันทึก</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-button-leave</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>ออก</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-button-delete</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>ลบ</t>
+  </si>
+  <si>
     <t>patona-sellercenter-customerbook-table-body-menu-edit</t>
   </si>
   <si>
-    <t>Edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">แก้ไขข้อมูล	</t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-button-addcustomer</t>
-  </si>
-  <si>
-    <t>Add customer</t>
-  </si>
-  <si>
-    <t>เพิ่มลูกค้า</t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-placeholder-search</t>
-  </si>
-  <si>
-    <t>Name or Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชื่อหรือเบอร์โทร	</t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-add-title-information</t>
-  </si>
-  <si>
-    <t>ข้อมูลพื้นฐาน</t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-add-label-name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>ชื่อ</t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-add-placeholder-name</t>
-  </si>
-  <si>
-    <t>Enter First Name</t>
-  </si>
-  <si>
-    <t>ระบุชื่อ</t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-add-label-lastname</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>นามสกุล</t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-add-placeholder-lastname</t>
-  </si>
-  <si>
-    <t>Enter Last Name</t>
-  </si>
-  <si>
-    <t>ระบุนามสกุล</t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-add-label-phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เบอร์โทรศัพท์	</t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-add-placeholder-phone</t>
-  </si>
-  <si>
-    <t>Enter Phone Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ระบุเบอร์โทรศัพท์	</t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-add-label-email</t>
-  </si>
-  <si>
-    <t>Email (Optional)</t>
-  </si>
-  <si>
-    <t>อีเมล (Optional)</t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-add-placeholder-email</t>
-  </si>
-  <si>
-    <t>Enter Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ระบุอีเมล	</t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-shippingaddress</t>
-  </si>
-  <si>
-    <t>Shipping Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ที่อยู่สำหรับจัดส่งสินค้า	</t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-noshippingaddress</t>
-  </si>
-  <si>
-    <t>No Shipping Address Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ยังไม่มีที่อยู่สำหรับจัดส่งสินค้า        </t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-button-addshippingaddress</t>
-  </si>
-  <si>
-    <t>Add Shipping Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เพิ่มที่อยู่สำหรับจัดส่งสินค้า	</t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-modal-shipping-title-addshipping</t>
-  </si>
-  <si>
-    <t>patona-sellercenter-customerbook-modal-shipping-title-editshipping</t>
-  </si>
-  <si>
-    <t>Edit Shipping Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">แก้ไขที่อยู่สำหรับจัดส่งสินค้า        </t>
+    <t>แก้ไข</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-table-body-menu-delete</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-detail-badge-customerdetail</t>
+  </si>
+  <si>
+    <t>Customer Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">รายละเอียดลูกค้า	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-detail-customersince</t>
+  </si>
+  <si>
+    <t>Customer since</t>
+  </si>
+  <si>
+    <t>เป็นลูกค้าตั้งแต่</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-detail-tab-saleshistory</t>
+  </si>
+  <si>
+    <t>Sales History</t>
+  </si>
+  <si>
+    <t>ประวัติการขาย</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-detail-tab-shippingaddress</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-detail-tab-taxaddress</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-shipping-label-fullname</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชื่อ–นามสกุล	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-shipping-placeholder-fullname</t>
+  </si>
+  <si>
+    <t>Enter Full Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุชื่อ–นามสกุล	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-shipping-label-phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เบอร์โทรศัพท์        </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-shipping-placeholder-phone</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-taxinvoice-radio-individual</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">บุคคลธรรมดา	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-taxinvoice-radio-corporateentity</t>
+  </si>
+  <si>
+    <t>Corporate Entity</t>
+  </si>
+  <si>
+    <t>นิติบุคคล</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-taxinvoice-label-fullname</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-taxinvoice-placeholder-fullname</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-taxinvoice-label-taxid</t>
+  </si>
+  <si>
+    <t>Tax Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เลขประจำตัวผู้เสียภาษี	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-taxinvoice-placeholder-taxid</t>
+  </si>
+  <si>
+    <t>Enter Tax ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุเลขประจำตัวผู้เสียภาษี	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-taxinvoice-label-phone</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-taxinvoice-placeholder-phone</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-taxinvoice-label-email</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>อีเมล</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-taxinvoice-placeholder-email</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-taxinvoice-label-companyname</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>ชื่อบริษัท</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-taxinvoice-placeholder-companyname</t>
+  </si>
+  <si>
+    <t>Enter Company Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุชื่อบริษัท	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-taxinvoice-label-branchcode</t>
+  </si>
+  <si>
+    <t>Branch Code / Branch Number</t>
+  </si>
+  <si>
+    <t>รหัสสาขา/เลขที่สาขา</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-taxinvoice-placeholder-branchcode</t>
+  </si>
+  <si>
+    <t>Enter Branch Code / Branch Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุรหัสสาขา/เลขที่สาขา	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-deletetax-title</t>
+  </si>
+  <si>
+    <t>Delete Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ลบที่อยู่	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-deletetax-body</t>
+  </si>
+  <si>
+    <t>Do you want to delete this address?</t>
+  </si>
+  <si>
+    <t>คุณต้องการลบที่อยู่นี้ ใช่หรือไม่</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-deleteshipping-title</t>
+  </si>
+  <si>
+    <t>Delete shipping address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ลบที่อยู่สำหรับจัดส่งสินค้า	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-deleteshipping-body</t>
+  </si>
+  <si>
+    <t>Do you want to delete this shipping address?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณต้องการลบที่อยู่สำหรับจัดส่งสินค้านี้ ใช่หรือไม่	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-unsaved-title</t>
+  </si>
+  <si>
+    <t>You haven’t saved your data yet</t>
+  </si>
+  <si>
+    <t>คุณยังไม่ได้บันทึกข้อมูล</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-unsaved-body-warning</t>
+  </si>
+  <si>
+    <t>You have not saved the data</t>
+  </si>
+  <si>
+    <t>คุณไม่ได้ทำการบันทึกข้อมูล</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-modal-unsaved-body-confirm</t>
+  </si>
+  <si>
+    <t>Do you want to leave this page?</t>
+  </si>
+  <si>
+    <t>ต้องการออกจากหน้านี้หรือไม่?</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-toast-editcustomer-success</t>
+  </si>
+  <si>
+    <t>Customer information updated successfully.</t>
+  </si>
+  <si>
+    <t>แก้ไขข้อมูลลูกค้าสำเร็จ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-toast-addcustomer-success</t>
+  </si>
+  <si>
+    <t>Customer added successfully.</t>
+  </si>
+  <si>
+    <t>เพิ่มลูกค้าสำเร็จ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-toast-duplicatecustomer</t>
+  </si>
+  <si>
+    <t>First name, last name, and phone number already exist. Please review</t>
+  </si>
+  <si>
+    <t>ชื่อ, นามสกุล และเบอร์โทรศัพท์ซ้ำกับที่มีอยู่ในระบบ กรุณาตรวจสอบอีกครั้ง</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-toast-unablesave</t>
+  </si>
+  <si>
+    <t>Unable to save data. Please try again.</t>
+  </si>
+  <si>
+    <t>ไม่สามารถบันทึกข้อมูลได้ กรุณาลองใหม่อีกครั้ง</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-toast-editshipping-fail</t>
+  </si>
+  <si>
+    <t>Failed to update shipping address. Please try again.</t>
+  </si>
+  <si>
+    <t>แก้ไขที่อยู่สำหรับจัดส่งสินค้าไม่สำเร็จ กรุณาลองอีกครั้ง</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-toast-addshipping-success</t>
+  </si>
+  <si>
+    <t>Shipping address added successfully.</t>
+  </si>
+  <si>
+    <t>เพิ่มที่อยู่สำหรับจัดส่งสินค้าสำเร็จ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-toast-editshipping-success</t>
+  </si>
+  <si>
+    <t>Shipping address updated successfully.</t>
+  </si>
+  <si>
+    <t>แก้ไขที่อยู่สำหรับจัดส่งสินค้าสำเร็จ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-toast-deleteshipping-success</t>
+  </si>
+  <si>
+    <t>Shipping address deleted successfully</t>
+  </si>
+  <si>
+    <t>ลบที่อยู่สำหรับจัดส่งสินค้าสำเร็จ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-toast-deleteshipping-fail</t>
+  </si>
+  <si>
+    <t>Unable to delete the shipping address. Please try again.</t>
+  </si>
+  <si>
+    <t>ไม่สามารถลบที่อยู่สำหรับจัดส่งสินค้าได้ กรุณาลองใหม่อีกครั้ง</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-toast-addtaxaddress-fail</t>
+  </si>
+  <si>
+    <t>Failed to add tax invoice address. Please try again.</t>
+  </si>
+  <si>
+    <t>เพิ่มที่อยู่สำหรับออกใบกำกับภาษีไม่สำเร็จ กรุณาลองใหม่อีกครั้ง</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-toast-addtaxaddress-success</t>
+  </si>
+  <si>
+    <t>Tax invoice address added successfully.</t>
+  </si>
+  <si>
+    <t>เพิ่มที่อยู่สำหรับออกใบกำกับภาษีสำเร็จ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-toast-edittaxaddress-success</t>
+  </si>
+  <si>
+    <t>Tax invoice address updated successfully.</t>
+  </si>
+  <si>
+    <t>แก้ไขที่อยู่สำหรับออกใบกำกับภาษีสำเร็จ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-toast-edittaxaddress-fail</t>
+  </si>
+  <si>
+    <t>Failed to update tax invoice address. Please try again.</t>
+  </si>
+  <si>
+    <t>แก้ไขที่อยู่สำหรับออกใบกำกับภาษีไม่สำเร็จ กรุณาลองใหม่อีกครั้ง</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-toast-deletetaxaddress-success</t>
+  </si>
+  <si>
+    <t>Tax invoice address deleted successfully</t>
+  </si>
+  <si>
+    <t>ลบที่อยู่สำหรับออกใบกำกับภาษีสำเร็จ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-toast-deletetaxaddress-fail</t>
+  </si>
+  <si>
+    <t>Unable to delete tax invoice address. Please try again</t>
+  </si>
+  <si>
+    <t>ไม่สามารถลบที่อยู่สำหรับออกใบกำกับภาษีได้ กรุณาลองใหม่อีกครั้ง</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-shippingaddress-table-header-fullname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชื่อ-นามสกุล	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-shippingaddress-table-header-phone</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-shippingaddress-table-header-address</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ที่อยู่</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-shippingaddress-table-header-primaryaddress</t>
+  </si>
+  <si>
+    <t>Primary Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ที่อยู่หลัก	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-taxaddress-table-header-type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ประเภท</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-taxaddress-table-header-name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-taxaddress-table-header-taxid</t>
+  </si>
+  <si>
+    <t>Tax ID Number</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-taxaddress-table-header-email</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-taxaddress-table-header-address</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-customerbook-edit-title-editcustomer</t>
+  </si>
+  <si>
+    <t>Edit Customer Information</t>
+  </si>
+  <si>
+    <t>แก้ไขข้อมูลลูกค้า</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-topbar-option-account</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>บัญชี</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-topbar-option-accountsettings</t>
+  </si>
+  <si>
+    <t>Account Settings</t>
+  </si>
+  <si>
+    <t>ตั้งค่าบัญชี</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-topbar-option-help</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ช่วยเหลือ	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-topbar-option-logout</t>
+  </si>
+  <si>
+    <t>Log Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ออกจากระบบ	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-topbar-option-language</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>ภาษา</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-topbar-option-settings</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>ตั้งค่า</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-sidebar-radio-addnewstore</t>
+  </si>
+  <si>
+    <t>Add New Store</t>
+  </si>
+  <si>
+    <t>เพิ่มร้านค้าใหม่</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-sidebar-radio-storesettings</t>
+  </si>
+  <si>
+    <t>Store Settings</t>
+  </si>
+  <si>
+    <t>ตั้งค่าร้านค้า</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-title-companyheader</t>
+  </si>
+  <si>
+    <t>Create Company</t>
+  </si>
+  <si>
+    <t>สร้างบริษัท</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-title-companyheader-address</t>
+  </si>
+  <si>
+    <t>The address entered here will be used for invoicing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ที่อยู่ที่กรอกในหน้านี้จะถูกใช้เป็นที่อยู่ในการออกใบเสร็จ	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-header-next</t>
+  </si>
+  <si>
+    <t>Next :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ต่อไป : </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-title-companyheader-next</t>
+  </si>
+  <si>
+    <t>Accept Terms of Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ยอมรับเงื่อนไขการให้บริการ        </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-input-icon-company</t>
+  </si>
+  <si>
+    <t>Upload Company Logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">อัปโหลดโลโก้บริษัท	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-input-description-company</t>
+  </si>
+  <si>
+    <t>File size must not exceed 1MB. JPG, PNG only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ขนาดไฟล์ไม่เกิน 1MB รองรับไฟล์ JPG, PNG	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-input-label-companyname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชื่อบริษัท   </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-input-placeholder-company</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-input-label-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เลขประจำตัวผู้เสียภาษี        </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-input-placeholder-tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Tax ID </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-input-label-email</t>
+  </si>
+  <si>
+    <t>Company Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">อีเมลบริษัท	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-input-placeholder-email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Company Email </t>
+  </si>
+  <si>
+    <t>ระบุอีเมลบริษัท</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-input-label-phone</t>
+  </si>
+  <si>
+    <t>Primary Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เบอร์โทรหลัก   </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-input-placeholder-phone</t>
+  </si>
+  <si>
+    <t>Enter Primary Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุเบอร์โทรหลัก	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-input-label-subphone</t>
+  </si>
+  <si>
+    <t>Secondary Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เบอร์โทรสำรอง	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-input-placeholder-subphone</t>
+  </si>
+  <si>
+    <t>Enter Secondary Phone Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุเบอร์โทรสำรอง	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-button-next</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ถัดไป	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-button-cancel</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-next-title-description</t>
+  </si>
+  <si>
+    <t>Accept the Term of Service and Create Store/Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ยอมรับ Term of Service และ สร้างร้านค้า/สาขา        </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-next-title-next</t>
+  </si>
+  <si>
+    <t>Create Store/Branch</t>
+  </si>
+  <si>
+    <t>สร้างร้านค้า/สาขา</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-toast-successfully</t>
+  </si>
+  <si>
+    <t>New company added successfully</t>
+  </si>
+  <si>
+    <t>เพิ่มบริษัทใหม่สำเร็จ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-toast-tryagain</t>
+  </si>
+  <si>
+    <t>An error occurred, please try again</t>
+  </si>
+  <si>
+    <t>เกิดข้อผิดพลาดกรุณาลองใหม่อีกครั้ง</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-toast-switched</t>
+  </si>
+  <si>
+    <t>Store has been switched</t>
+  </si>
+  <si>
+    <t>สลับร้านค้าแล้ว</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-button-back</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-company-create-input-error-taxid</t>
+  </si>
+  <si>
+    <t>Please enter a valid Tax ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กรุณาระบุเลขประจำตัวผู้เสียภาษีให้ถูกต้อง	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-title-storeheader</t>
+  </si>
+  <si>
+    <t>Create Store</t>
+  </si>
+  <si>
+    <t>สร้างร้านค้า</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-title-storeheader-address</t>
+  </si>
+  <si>
+    <t>The address entered here will be used for shipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ที่อยู่ที่กรอกในหน้านี้จะถูกใช้เป็นที่อยู่สำหรับการจัดส่งสินค้า	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-title-storeheader-next</t>
+  </si>
+  <si>
+    <t>Start using Patona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เริ่มใช้งาน Patona ได้เลย        </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-input-label-storename</t>
+  </si>
+  <si>
+    <t>Store Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชื่อร้านค้า	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-input-placeholder-storename</t>
+  </si>
+  <si>
+    <t>Enter Store Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุชื่อร้านค้า        </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-input-checkbox-information</t>
+  </si>
+  <si>
+    <t>Use company information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ใช้ข้อมูลเดียวกับบริษัท        </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-input-label-branchcode</t>
+  </si>
+  <si>
+    <t>Branch Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">รหัสสาขา	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-input-placeholder-branchcode</t>
+  </si>
+  <si>
+    <t>Enter Branch Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุรหัสสาขา	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-input-label-phone</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-input-placeholder-phone</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-input-label-subphone</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-input-placeholder-subphone</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-button-start</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เริ่มใช้งาน	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-button-cancel</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-tooltip-branchcode</t>
+  </si>
+  <si>
+    <t>The branch code you enter will appear on the receipt, ex. 00001</t>
+  </si>
+  <si>
+    <t>รหัสสาขาที่กรอกจะไปปรากฏที่ใบเสร็จ เช่น 00001</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-toast-successfully</t>
+  </si>
+  <si>
+    <t>New Store added successfully</t>
+  </si>
+  <si>
+    <t>เพิ่มสาขาใหม่สำเร็จ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-store-create-toast-tryagain</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-minimum2</t>
+  </si>
+  <si>
+    <t>Please enter more than 2 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กรุณาระบุมากกว่า 2 ตัวอักษรขึ้นไป        </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-minimum4</t>
+  </si>
+  <si>
+    <t>Please enter more than 4 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กรุณาระบุมากกว่า 4 ตัวอักษรขึ้นไป	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-invalidformat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid format.	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-invalidphone</t>
+  </si>
+  <si>
+    <t>Please enter a valid phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กรุณาระบุเบอร์โทรให้ถูกต้อง	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-blankfullname</t>
+  </si>
+  <si>
+    <t>Please enter your full name</t>
+  </si>
+  <si>
+    <t>กรุณาระบุชื่อ–นามสกุล</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-blankname</t>
+  </si>
+  <si>
+    <t>Please enter your first name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กรุณาระบุชื่อ	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-blanklastname</t>
+  </si>
+  <si>
+    <t>Please enter your last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุนามสกุล	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-blankphone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">กรุณาระบุเบอร์โทร      </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-blanktaxid</t>
+  </si>
+  <si>
+    <t>Please enter a valid tax identification</t>
+  </si>
+  <si>
+    <t>กรุณาระบุเลขประจำตัวผู้เสียภาษีให้ถูกต้อง</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-blankcountry</t>
+  </si>
+  <si>
+    <t>Please enter a country</t>
+  </si>
+  <si>
+    <t>ระบุประเทศ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-blankowner</t>
+  </si>
+  <si>
+    <t>Please enter the owner.</t>
+  </si>
+  <si>
+    <t>ระบุเจ้าของ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-blankcountrycode</t>
+  </si>
+  <si>
+    <t>Please enter a country code</t>
+  </si>
+  <si>
+    <t>กรุณาระบุรหัสประเทศ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-blankstore</t>
+  </si>
+  <si>
+    <t>Please enter the store name.</t>
+  </si>
+  <si>
+    <t>กรุณาระบุชื่อร้านค้า</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-blankaddress</t>
+  </si>
+  <si>
+    <t>Please enter the address.</t>
+  </si>
+  <si>
+    <t>กรุณาระบุที่อยู่</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-blankprimaryphone</t>
+  </si>
+  <si>
+    <t>Please enter the primary phone number.</t>
+  </si>
+  <si>
+    <t>กรุณาระบุเบอร์โทรหลัก</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-blankbranchcode</t>
+  </si>
+  <si>
+    <t>Please enter the branch code</t>
+  </si>
+  <si>
+    <t>กรุณาระบุรหัสร้านหรือสาขา</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-blankcompanyname</t>
+  </si>
+  <si>
+    <t>Please enter the company name.</t>
+  </si>
+  <si>
+    <t>กรุณาระบุชื่อบริษัท</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-selectedcountry</t>
+  </si>
+  <si>
+    <t>Please select or enter the country.</t>
+  </si>
+  <si>
+    <t>กรุณาเลือกหรือระบุประเทศ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-helper-text-error-selectedpostalcode</t>
+  </si>
+  <si>
+    <t>Please select or enter the postal code</t>
+  </si>
+  <si>
+    <t>กรุณาเลือกหรือระบุรหัสไปรษณีย์</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-label-country</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>ประเทศ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-placeholder-country</t>
+  </si>
+  <si>
+    <t>Select Country</t>
+  </si>
+  <si>
+    <t>เลือกประเทศ</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-label-postalcode</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">รหัสไปรษณีย์  </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-placeholder-postalcode</t>
+  </si>
+  <si>
+    <t>Select/Enter Postal Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุรหัสไปรษณีย์  </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-label-province</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">จังหวัด        </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-placeholder-province</t>
+  </si>
+  <si>
+    <t>Enter Province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุจังหวัด	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-label-district</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เขต/อำเภอ	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-placeholder-district</t>
+  </si>
+  <si>
+    <t>Enter District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุเขต/อำเภอ	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-label-subdistrict</t>
+  </si>
+  <si>
+    <t>Sub-district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">แขวง/ตำบล	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-placeholder-subdistrict</t>
+  </si>
+  <si>
+    <t>Enter Sub-district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุแขวง/ตำบล	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-label-address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ที่อยู่  </t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-placeholder-address</t>
+  </si>
+  <si>
+    <t>Enter Addres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระบุที่อยู่	</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-label-locality</t>
+  </si>
+  <si>
+    <t>Village/Community</t>
+  </si>
+  <si>
+    <t>หมู่บ้าน/ชุมชน</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-label-street</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>ถนน</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-placeholder-locality</t>
+  </si>
+  <si>
+    <t>Enter Village/Community</t>
+  </si>
+  <si>
+    <t>ระบุหมู่บ้าน/ชุมชน</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-placeholder-street</t>
+  </si>
+  <si>
+    <t>Enter Street</t>
+  </si>
+  <si>
+    <t>ระบุถนน</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-label-addressnumber</t>
+  </si>
+  <si>
+    <t>Address Number</t>
+  </si>
+  <si>
+    <t>เลขที่</t>
+  </si>
+  <si>
+    <t>patona-sellercenter-addressform-input-placeholder-addressnumber</t>
+  </si>
+  <si>
+    <t>Enter Address Number</t>
+  </si>
+  <si>
+    <t>ระบุเลขที่</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1326,6 +2540,11 @@
     </font>
     <font>
       <color rgb="FF0E0E0E"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1369,7 +2588,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1400,6 +2619,15 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1421,6 +2649,26 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3424,9 +4672,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="50.13"/>
-    <col customWidth="1" min="2" max="2" width="25.63"/>
-    <col customWidth="1" min="3" max="3" width="22.63"/>
+    <col customWidth="1" min="1" max="1" width="59.5"/>
+    <col customWidth="1" min="2" max="2" width="48.13"/>
+    <col customWidth="1" min="3" max="3" width="25.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3507,7 +4755,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>377</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3540,158 +4788,2067 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>386</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>422</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>423</v>
       </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="37.75"/>
+    <col customWidth="1" min="2" max="2" width="13.5"/>
+    <col customWidth="1" min="3" max="3" width="11.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="49.88"/>
+    <col customWidth="1" min="2" max="2" width="39.75"/>
+    <col customWidth="1" min="3" max="3" width="39.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="47.25"/>
+    <col customWidth="1" min="2" max="2" width="48.13"/>
+    <col customWidth="1" min="3" max="3" width="41.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="48.88"/>
+    <col customWidth="1" min="2" max="2" width="33.5"/>
+    <col customWidth="1" min="3" max="3" width="27.88"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="47.0"/>
+    <col customWidth="1" min="2" max="2" width="32.13"/>
+    <col customWidth="1" min="3" max="3" width="24.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2"/>
@@ -3710,8 +6867,123 @@
     </row>
     <row r="28">
       <c r="A28" s="2"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
